--- a/data/trans_orig/P14A12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A12-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FF42B49-1654-4AC4-83AD-A5AA077EBD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F87B7B7-A1ED-4CFA-9FD3-2A07E2BF8935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9DB968DB-60A4-4E30-AA0E-B0FC17348C9E}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5AA0BC09-A47B-4367-9684-94B40ABF757B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="102">
   <si>
     <t>Población que recibe medicación o terapia por angina de pecho en 2012 (Tasa respuesta: 0,68%)</t>
   </si>
@@ -138,7 +138,7 @@
     <t>94,66%</t>
   </si>
   <si>
-    <t>76,82%</t>
+    <t>76,46%</t>
   </si>
   <si>
     <t>80,5%</t>
@@ -153,16 +153,16 @@
     <t>87,62%</t>
   </si>
   <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
+    <t>71,92%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>23,18%</t>
+    <t>23,54%</t>
   </si>
   <si>
     <t>19,5%</t>
@@ -177,16 +177,16 @@
     <t>12,38%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>28,08%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>71,25%</t>
+    <t>71,58%</t>
   </si>
   <si>
     <t>77,37%</t>
@@ -201,16 +201,16 @@
     <t>83,99%</t>
   </si>
   <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>28,75%</t>
+    <t>28,42%</t>
   </si>
   <si>
     <t>22,63%</t>
@@ -225,10 +225,10 @@
     <t>16,01%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -258,6 +258,9 @@
     <t>90,24%</t>
   </si>
   <si>
+    <t>60,5%</t>
+  </si>
+  <si>
     <t>20,75%</t>
   </si>
   <si>
@@ -267,6 +270,9 @@
     <t>9,76%</t>
   </si>
   <si>
+    <t>39,5%</t>
+  </si>
+  <si>
     <t>94,69%</t>
   </si>
   <si>
@@ -300,7 +306,7 @@
     <t>91,94%</t>
   </si>
   <si>
-    <t>74,48%</t>
+    <t>75,8%</t>
   </si>
   <si>
     <t>88,47%</t>
@@ -312,16 +318,16 @@
     <t>90,47%</t>
   </si>
   <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>78,58%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>25,52%</t>
+    <t>24,2%</t>
   </si>
   <si>
     <t>11,53%</t>
@@ -333,10 +339,10 @@
     <t>9,53%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
   </si>
 </sst>
 </file>
@@ -748,7 +754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC6266E-8FBF-44D5-9F14-3263DCA36004}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EFF8BB-AFC5-4811-848E-D3061DC6A0E6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1943,7 +1949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E77ADF09-B22D-4DAC-88AF-B8B40BC91E5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09978994-AC23-4B3B-A0C7-87ECD5DBA930}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2684,7 +2690,7 @@
         <v>72</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>12</v>
@@ -2708,7 +2714,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2717,7 +2723,7 @@
         <v>1194</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>16</v>
@@ -2732,13 +2738,13 @@
         <v>1194</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,10 +2812,10 @@
         <v>14388</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>12</v>
@@ -2824,7 +2830,7 @@
         <v>12</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -2836,10 +2842,10 @@
         <v>27067</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>12</v>
@@ -2857,13 +2863,13 @@
         <v>807</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2878,7 +2884,7 @@
         <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2887,13 +2893,13 @@
         <v>807</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>16</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,10 +2967,10 @@
         <v>24046</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>12</v>
@@ -2976,10 +2982,10 @@
         <v>16971</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>12</v>
@@ -2991,13 +2997,13 @@
         <v>41018</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,13 +3018,13 @@
         <v>2108</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -3027,13 +3033,13 @@
         <v>2212</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -3042,13 +3048,13 @@
         <v>4320</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A12-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F87B7B7-A1ED-4CFA-9FD3-2A07E2BF8935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95EAE889-096A-4E7D-8336-C9150B5447CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5AA0BC09-A47B-4367-9684-94B40ABF757B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{668BAA5F-00E0-422C-87A7-83AB3B493D15}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -138,103 +138,103 @@
     <t>94,66%</t>
   </si>
   <si>
-    <t>76,46%</t>
+    <t>76,78%</t>
   </si>
   <si>
     <t>80,5%</t>
   </si>
   <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
   </si>
   <si>
     <t>87,62%</t>
   </si>
   <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>23,54%</t>
+    <t>23,22%</t>
   </si>
   <si>
     <t>19,5%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
   </si>
   <si>
     <t>12,38%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>28,08%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>71,58%</t>
+    <t>74,92%</t>
   </si>
   <si>
     <t>77,37%</t>
   </si>
   <si>
-    <t>54,97%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
   </si>
   <si>
     <t>83,99%</t>
   </si>
   <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>28,42%</t>
+    <t>25,08%</t>
   </si>
   <si>
     <t>22,63%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por angina de pecho en 2015 (Tasa respuesta: 0,65%)</t>
+    <t>Población que recibe medicación o terapia por angina de pecho en 2016 (Tasa respuesta: 0,65%)</t>
   </si>
   <si>
     <t>50,18%</t>
@@ -258,7 +258,7 @@
     <t>90,24%</t>
   </si>
   <si>
-    <t>60,5%</t>
+    <t>58,97%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -270,13 +270,13 @@
     <t>9,76%</t>
   </si>
   <si>
-    <t>39,5%</t>
+    <t>41,03%</t>
   </si>
   <si>
     <t>94,69%</t>
   </si>
   <si>
-    <t>72,25%</t>
+    <t>76,1%</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -285,13 +285,13 @@
     <t>97,11%</t>
   </si>
   <si>
-    <t>84,32%</t>
+    <t>81,39%</t>
   </si>
   <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>27,75%</t>
+    <t>23,9%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -300,49 +300,49 @@
     <t>2,89%</t>
   </si>
   <si>
-    <t>15,68%</t>
+    <t>18,61%</t>
   </si>
   <si>
     <t>91,94%</t>
   </si>
   <si>
-    <t>75,8%</t>
+    <t>66,41%</t>
   </si>
   <si>
     <t>88,47%</t>
   </si>
   <si>
-    <t>61,06%</t>
+    <t>65,11%</t>
   </si>
   <si>
     <t>90,47%</t>
   </si>
   <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>24,2%</t>
+    <t>33,59%</t>
   </si>
   <si>
     <t>11,53%</t>
   </si>
   <si>
-    <t>38,94%</t>
+    <t>34,89%</t>
   </si>
   <si>
     <t>9,53%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
   </si>
 </sst>
 </file>
@@ -754,7 +754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EFF8BB-AFC5-4811-848E-D3061DC6A0E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4808D1C9-758E-408C-B46C-6B860A00E47A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1949,7 +1949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09978994-AC23-4B3B-A0C7-87ECD5DBA930}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A24D0069-0B0E-4CBC-87E7-64B4A5A4C092}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
